--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46144722-3CBA-4E33-8415-3569F1716FBB}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5CA5B01-8CB5-47C3-8E01-DCCAAFB59FF3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$U$7:$U$24,Specifications!$Y$7:$Y$24,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$39:$I$48,Specifications!$M$39:$M$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="96">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +45,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -220,12 +214,6 @@
   </si>
   <si>
     <t>SAGE: Custom Entity (optional)</t>
-  </si>
-  <si>
-    <t>not required</t>
-  </si>
-  <si>
-    <t>some other notes</t>
   </si>
   <si>
     <t>Anrede</t>
@@ -361,6 +349,9 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>eine Notiz</t>
   </si>
 </sst>
 </file>
@@ -1540,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1678,9 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
@@ -1705,6 +1694,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1721,6 +1720,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1740,37 +1760,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2704,7 +2693,7 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2727,19 +2716,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
+      <c r="A1" s="126" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2754,99 +2743,99 @@
     </row>
     <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="42"/>
-      <c r="G4" s="120" t="s">
+      <c r="G4" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="O4" s="131" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="S4" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="128"/>
+      <c r="U4" s="129"/>
+      <c r="W4" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="120" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="O4" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="S4" s="116" t="s">
-        <v>62</v>
-      </c>
-      <c r="T4" s="117"/>
-      <c r="U4" s="118"/>
-      <c r="W4" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="129"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
       <c r="E6" s="51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H6" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L6" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="Q6" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="X6" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y6" s="91" t="s">
-        <v>30</v>
+      <c r="Y6" s="89" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2865,199 +2854,207 @@
       <c r="O7" s="76"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="77"/>
-      <c r="S7" s="92"/>
+      <c r="S7" s="90"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="93"/>
-      <c r="W7" s="92"/>
+      <c r="U7" s="91"/>
+      <c r="W7" s="90"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="93"/>
+      <c r="Y7" s="91"/>
     </row>
     <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C8" s="63"/>
-      <c r="D8" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="D8" s="64"/>
       <c r="E8" s="65"/>
       <c r="G8" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="66"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" s="79" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="78" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="66"/>
+        <v>3</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="79" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="O8" s="78"/>
       <c r="P8" s="66"/>
       <c r="Q8" s="79"/>
-      <c r="S8" s="94" t="s">
-        <v>44</v>
+      <c r="S8" s="92" t="s">
+        <v>42</v>
       </c>
       <c r="T8" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="95"/>
-      <c r="W8" s="94"/>
+        <v>43</v>
+      </c>
+      <c r="U8" s="93"/>
+      <c r="W8" s="92"/>
       <c r="X8" s="66"/>
-      <c r="Y8" s="95"/>
+      <c r="Y8" s="93"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="49"/>
       <c r="G9" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="I9" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="M9" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O9" s="80"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="81"/>
-      <c r="S9" s="96" t="s">
-        <v>46</v>
+      <c r="S9" s="94" t="s">
+        <v>44</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="97"/>
-      <c r="W9" s="98"/>
+        <v>45</v>
+      </c>
+      <c r="U9" s="95"/>
+      <c r="W9" s="96"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="97"/>
+      <c r="Y9" s="95"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" s="21"/>
-      <c r="C10" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="49"/>
       <c r="G10" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="I10" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="M10" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O10" s="80"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="81"/>
-      <c r="S10" s="98"/>
+      <c r="S10" s="96"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="97"/>
-      <c r="W10" s="98"/>
+      <c r="U10" s="95"/>
+      <c r="W10" s="96"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="97"/>
+      <c r="Y10" s="95"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C11" s="27"/>
       <c r="D11" s="28"/>
       <c r="E11" s="49"/>
       <c r="G11" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I11" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="M11" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O11" s="80"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="81"/>
-      <c r="S11" s="98"/>
+      <c r="S11" s="96"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="97"/>
-      <c r="W11" s="98"/>
+      <c r="U11" s="95"/>
+      <c r="W11" s="96"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="97"/>
+      <c r="Y11" s="95"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="21" t="s">
         <v>64</v>
       </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="49"/>
       <c r="G12" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="80"/>
       <c r="L12" s="5"/>
       <c r="M12" s="81"/>
       <c r="O12" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="Q12" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="98"/>
+        <v>39</v>
+      </c>
+      <c r="S12" s="96"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="97"/>
-      <c r="W12" s="98"/>
+      <c r="U12" s="95"/>
+      <c r="W12" s="96"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="97"/>
+      <c r="Y12" s="95"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3068,33 +3065,39 @@
       <c r="D13" s="28"/>
       <c r="E13" s="49"/>
       <c r="G13" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="77" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="77" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="O13" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="98"/>
+        <v>22</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="96"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="97"/>
-      <c r="W13" s="98"/>
+      <c r="U13" s="95"/>
+      <c r="W13" s="96"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="97"/>
+      <c r="Y13" s="95"/>
     </row>
     <row r="14" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
@@ -3102,112 +3105,128 @@
       </c>
       <c r="B14" s="62"/>
       <c r="C14" s="63"/>
-      <c r="D14" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="D14" s="64"/>
       <c r="E14" s="65"/>
       <c r="G14" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="83" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="68"/>
-      <c r="M14" s="83" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="O14" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="99"/>
+        <v>23</v>
+      </c>
+      <c r="P14" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S14" s="97"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="100"/>
-      <c r="W14" s="99"/>
+      <c r="U14" s="98"/>
+      <c r="W14" s="97"/>
       <c r="X14" s="68"/>
-      <c r="Y14" s="100"/>
+      <c r="Y14" s="98"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="49"/>
-      <c r="G15" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="85" t="s">
-        <v>3</v>
+      <c r="G15" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="S15" s="98"/>
+      <c r="K15" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="96"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="97"/>
-      <c r="W15" s="98"/>
+      <c r="U15" s="95"/>
+      <c r="W15" s="96"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="97"/>
+      <c r="Y15" s="95"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="49"/>
       <c r="G16" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M16" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="Q16" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="S16" s="98"/>
+        <v>39</v>
+      </c>
+      <c r="S16" s="96"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="97"/>
-      <c r="W16" s="98"/>
+      <c r="U16" s="95"/>
+      <c r="W16" s="96"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="97"/>
+      <c r="Y16" s="95"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -3218,181 +3237,207 @@
       <c r="D17" s="28"/>
       <c r="E17" s="49"/>
       <c r="G17" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M17" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="Q17" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="98"/>
+        <v>39</v>
+      </c>
+      <c r="S17" s="96"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="97"/>
-      <c r="W17" s="98"/>
+      <c r="U17" s="95"/>
+      <c r="W17" s="96"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="97"/>
+      <c r="Y17" s="95"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="49"/>
       <c r="G18" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="I18" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="M18" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O18" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="P18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="Q18" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="98"/>
+        <v>39</v>
+      </c>
+      <c r="S18" s="96"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="97"/>
-      <c r="W18" s="98"/>
+      <c r="U18" s="95"/>
+      <c r="W18" s="96"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="97"/>
+      <c r="Y18" s="95"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="49"/>
       <c r="G19" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="M19" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O19" s="80"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="81"/>
-      <c r="S19" s="98"/>
+      <c r="Q19" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" s="96"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="97"/>
-      <c r="W19" s="98"/>
+      <c r="U19" s="95"/>
+      <c r="W19" s="96"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="97"/>
+      <c r="Y19" s="95"/>
     </row>
     <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="64" t="s">
-        <v>51</v>
-      </c>
+      <c r="D20" s="64"/>
       <c r="E20" s="65"/>
       <c r="G20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="83" t="s">
-        <v>3</v>
+      <c r="H20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="J20" s="67"/>
       <c r="K20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="68"/>
-      <c r="M20" s="83" t="s">
-        <v>3</v>
+      <c r="L20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="O20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="99"/>
+      <c r="P20" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" s="97"/>
       <c r="T20" s="68"/>
-      <c r="U20" s="100"/>
-      <c r="W20" s="99"/>
+      <c r="U20" s="98"/>
+      <c r="W20" s="97"/>
       <c r="X20" s="68"/>
-      <c r="Y20" s="100"/>
+      <c r="Y20" s="98"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="49"/>
       <c r="G21" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="I21" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="M21" s="81" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="O21" s="80"/>
       <c r="P21" s="5"/>
-      <c r="Q21" s="81"/>
-      <c r="S21" s="98"/>
+      <c r="Q21" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="96"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="97"/>
-      <c r="W21" s="98"/>
+      <c r="U21" s="95"/>
+      <c r="W21" s="96"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="97"/>
+      <c r="Y21" s="95"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -3401,9 +3446,11 @@
       <c r="G22" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="77" t="s">
-        <v>3</v>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="76"/>
@@ -3412,20 +3459,22 @@
       <c r="O22" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="92"/>
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="90"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="93"/>
-      <c r="W22" s="92"/>
+      <c r="U22" s="91"/>
+      <c r="W22" s="90"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="93"/>
+      <c r="Y22" s="91"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="27"/>
@@ -3441,12 +3490,12 @@
       <c r="O23" s="76"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="77"/>
-      <c r="S23" s="92"/>
+      <c r="S23" s="90"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="93"/>
-      <c r="W23" s="92"/>
+      <c r="U23" s="91"/>
+      <c r="W23" s="90"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="93"/>
+      <c r="Y23" s="91"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
@@ -3454,22 +3503,22 @@
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
       <c r="E24" s="50"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="86"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="103"/>
-      <c r="W24" s="101"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="103"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="86"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="86"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100"/>
+      <c r="U24" s="101"/>
+      <c r="W24" s="99"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="101"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
@@ -3491,106 +3540,106 @@
     </row>
     <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="121" t="s">
+      <c r="G26" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="121" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
+      <c r="W26" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G27" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H27" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="M27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="Q27" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="U27" s="91" t="s">
+      <c r="U27" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="W27" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="X27" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y27" s="91" t="s">
-        <v>30</v>
+      <c r="Y27" s="89" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="33"/>
@@ -3598,7 +3647,7 @@
       <c r="G28" s="80"/>
       <c r="H28" s="5"/>
       <c r="I28" s="81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28" s="80"/>
       <c r="L28" s="5"/>
@@ -3606,19 +3655,19 @@
       <c r="O28" s="80"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="81"/>
-      <c r="S28" s="98"/>
+      <c r="S28" s="96"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="97"/>
-      <c r="W28" s="98"/>
+      <c r="U28" s="95"/>
+      <c r="W28" s="96"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="97"/>
+      <c r="Y28" s="95"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="39"/>
       <c r="D29" s="34"/>
@@ -3626,7 +3675,7 @@
       <c r="G29" s="80"/>
       <c r="H29" s="5"/>
       <c r="I29" s="81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29" s="80"/>
       <c r="L29" s="5"/>
@@ -3634,19 +3683,19 @@
       <c r="O29" s="80"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="81"/>
-      <c r="S29" s="98"/>
+      <c r="S29" s="96"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="97"/>
-      <c r="W29" s="98"/>
+      <c r="U29" s="95"/>
+      <c r="W29" s="96"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="97"/>
+      <c r="Y29" s="95"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="39"/>
       <c r="D30" s="34"/>
@@ -3660,19 +3709,19 @@
       <c r="O30" s="80"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="81"/>
-      <c r="S30" s="98"/>
+      <c r="S30" s="96"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="97"/>
-      <c r="W30" s="98"/>
+      <c r="U30" s="95"/>
+      <c r="W30" s="96"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="97"/>
+      <c r="Y30" s="95"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="39"/>
       <c r="D31" s="34"/>
@@ -3686,16 +3735,16 @@
       <c r="O31" s="80"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="81"/>
-      <c r="S31" s="98"/>
+      <c r="S31" s="96"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="97"/>
-      <c r="W31" s="98"/>
+      <c r="U31" s="95"/>
+      <c r="W31" s="96"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="97"/>
+      <c r="Y31" s="95"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="39"/>
@@ -3710,16 +3759,16 @@
       <c r="O32" s="80"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="81"/>
-      <c r="S32" s="98"/>
+      <c r="S32" s="96"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="97"/>
-      <c r="W32" s="98"/>
+      <c r="U32" s="95"/>
+      <c r="W32" s="96"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="97"/>
+      <c r="Y32" s="95"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="39"/>
@@ -3734,16 +3783,16 @@
       <c r="O33" s="80"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="81"/>
-      <c r="S33" s="98"/>
+      <c r="S33" s="96"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="97"/>
-      <c r="W33" s="98"/>
+      <c r="U33" s="95"/>
+      <c r="W33" s="96"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="97"/>
+      <c r="Y33" s="95"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="39"/>
@@ -3758,16 +3807,16 @@
       <c r="O34" s="80"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="81"/>
-      <c r="S34" s="98"/>
+      <c r="S34" s="96"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="97"/>
-      <c r="W34" s="98"/>
+      <c r="U34" s="95"/>
+      <c r="W34" s="96"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="97"/>
+      <c r="Y34" s="95"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="39"/>
@@ -3782,16 +3831,16 @@
       <c r="O35" s="80"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="81"/>
-      <c r="S35" s="98"/>
+      <c r="S35" s="96"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="97"/>
-      <c r="W35" s="98"/>
+      <c r="U35" s="95"/>
+      <c r="W35" s="96"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="97"/>
+      <c r="Y35" s="95"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="39"/>
@@ -3806,16 +3855,16 @@
       <c r="O36" s="80"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="81"/>
-      <c r="S36" s="98"/>
+      <c r="S36" s="96"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="97"/>
-      <c r="W36" s="98"/>
+      <c r="U36" s="95"/>
+      <c r="W36" s="96"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="97"/>
+      <c r="Y36" s="95"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="40"/>
@@ -3830,74 +3879,74 @@
       <c r="O37" s="76"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="77"/>
-      <c r="S37" s="92"/>
+      <c r="S37" s="90"/>
       <c r="T37" s="6"/>
-      <c r="U37" s="93"/>
-      <c r="W37" s="92"/>
+      <c r="U37" s="91"/>
+      <c r="W37" s="90"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="93"/>
+      <c r="Y37" s="91"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G38" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I38" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="M38" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="P38" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="106" t="s">
+      <c r="Q38" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="S38" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="U38" s="91" t="s">
+      <c r="U38" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="W38" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="X38" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y38" s="91" t="s">
-        <v>30</v>
+      <c r="Y38" s="89" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123" t="s">
-        <v>89</v>
+      <c r="A39" s="108" t="s">
+        <v>84</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="38"/>
@@ -3909,19 +3958,19 @@
       <c r="K39" s="80"/>
       <c r="L39" s="5"/>
       <c r="M39" s="81"/>
-      <c r="O39" s="107"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="109"/>
-      <c r="S39" s="98"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="106"/>
+      <c r="Q39" s="107"/>
+      <c r="S39" s="96"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="97"/>
-      <c r="W39" s="98"/>
+      <c r="U39" s="95"/>
+      <c r="W39" s="96"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="97"/>
+      <c r="Y39" s="95"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="124" t="s">
-        <v>90</v>
+      <c r="A40" s="109" t="s">
+        <v>85</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="39"/>
@@ -3936,16 +3985,16 @@
       <c r="O40" s="80"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="81"/>
-      <c r="S40" s="98"/>
+      <c r="S40" s="96"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="97"/>
-      <c r="W40" s="98"/>
+      <c r="U40" s="95"/>
+      <c r="W40" s="96"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="97"/>
+      <c r="Y40" s="95"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="124" t="s">
-        <v>81</v>
+      <c r="A41" s="109" t="s">
+        <v>76</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="39"/>
@@ -3960,16 +4009,16 @@
       <c r="O41" s="80"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="81"/>
-      <c r="S41" s="98"/>
+      <c r="S41" s="96"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="97"/>
-      <c r="W41" s="98"/>
+      <c r="U41" s="95"/>
+      <c r="W41" s="96"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="97"/>
+      <c r="Y41" s="95"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="124" t="s">
-        <v>82</v>
+      <c r="A42" s="109" t="s">
+        <v>77</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="39"/>
@@ -3984,16 +4033,16 @@
       <c r="O42" s="80"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="81"/>
-      <c r="S42" s="98"/>
+      <c r="S42" s="96"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="97"/>
-      <c r="W42" s="98"/>
+      <c r="U42" s="95"/>
+      <c r="W42" s="96"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="97"/>
+      <c r="Y42" s="95"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="124" t="s">
-        <v>83</v>
+      <c r="A43" s="109" t="s">
+        <v>78</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="39"/>
@@ -4008,16 +4057,16 @@
       <c r="O43" s="80"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="81"/>
-      <c r="S43" s="98"/>
+      <c r="S43" s="96"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="97"/>
-      <c r="W43" s="98"/>
+      <c r="U43" s="95"/>
+      <c r="W43" s="96"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="97"/>
+      <c r="Y43" s="95"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="124" t="s">
-        <v>84</v>
+      <c r="A44" s="109" t="s">
+        <v>79</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="39"/>
@@ -4032,16 +4081,16 @@
       <c r="O44" s="80"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="81"/>
-      <c r="S44" s="98"/>
+      <c r="S44" s="96"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="97"/>
-      <c r="W44" s="98"/>
+      <c r="U44" s="95"/>
+      <c r="W44" s="96"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="97"/>
+      <c r="Y44" s="95"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="124" t="s">
-        <v>85</v>
+      <c r="A45" s="109" t="s">
+        <v>80</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="39"/>
@@ -4056,16 +4105,16 @@
       <c r="O45" s="80"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="81"/>
-      <c r="S45" s="98"/>
+      <c r="S45" s="96"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="97"/>
-      <c r="W45" s="98"/>
+      <c r="U45" s="95"/>
+      <c r="W45" s="96"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="97"/>
+      <c r="Y45" s="95"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="124" t="s">
-        <v>86</v>
+      <c r="A46" s="109" t="s">
+        <v>81</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="39"/>
@@ -4080,16 +4129,16 @@
       <c r="O46" s="80"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="81"/>
-      <c r="S46" s="98"/>
+      <c r="S46" s="96"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="97"/>
-      <c r="W46" s="98"/>
+      <c r="U46" s="95"/>
+      <c r="W46" s="96"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="97"/>
+      <c r="Y46" s="95"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="124" t="s">
-        <v>87</v>
+      <c r="A47" s="109" t="s">
+        <v>82</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="39"/>
@@ -4104,36 +4153,36 @@
       <c r="O47" s="80"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="81"/>
-      <c r="S47" s="98"/>
+      <c r="S47" s="96"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="97"/>
-      <c r="W47" s="98"/>
+      <c r="U47" s="95"/>
+      <c r="W47" s="96"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="97"/>
+      <c r="Y47" s="95"/>
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="124" t="s">
-        <v>88</v>
+      <c r="A48" s="109" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="40"/>
       <c r="D48" s="35"/>
       <c r="E48" s="47"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="88"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="88"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="102"/>
-      <c r="U48" s="103"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="102"/>
-      <c r="Y48" s="103"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="86"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="86"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="86"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="101"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="101"/>
     </row>
     <row r="49" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
@@ -4144,72 +4193,72 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G50" s="73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H50" s="74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I50" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="M50" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P50" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="O50" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="P50" s="74" t="s">
-        <v>32</v>
-      </c>
       <c r="Q50" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="S50" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="T50" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="U50" s="91" t="s">
+      <c r="U50" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="W50" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="X50" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="W50" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="X50" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y50" s="91" t="s">
-        <v>30</v>
+      <c r="Y50" s="89" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="125" t="s">
+      <c r="A51" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="127"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="129"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="111"/>
       <c r="G51" s="80"/>
       <c r="H51" s="5"/>
       <c r="I51" s="81"/>
@@ -4219,23 +4268,23 @@
       <c r="O51" s="80"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="81"/>
-      <c r="S51" s="98"/>
+      <c r="S51" s="96"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="97"/>
-      <c r="W51" s="98"/>
+      <c r="U51" s="95"/>
+      <c r="W51" s="96"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="97"/>
+      <c r="Y51" s="95"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="131" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="134"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="113"/>
       <c r="G52" s="80"/>
       <c r="H52" s="5"/>
       <c r="I52" s="81"/>
@@ -4245,23 +4294,23 @@
       <c r="O52" s="80"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="81"/>
-      <c r="S52" s="98"/>
+      <c r="S52" s="96"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="97"/>
-      <c r="W52" s="98"/>
+      <c r="U52" s="95"/>
+      <c r="W52" s="96"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="97"/>
+      <c r="Y52" s="95"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="134"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="113"/>
       <c r="G53" s="80"/>
       <c r="H53" s="5"/>
       <c r="I53" s="81"/>
@@ -4271,23 +4320,23 @@
       <c r="O53" s="80"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="81"/>
-      <c r="S53" s="98"/>
+      <c r="S53" s="96"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="97"/>
-      <c r="W53" s="98"/>
+      <c r="U53" s="95"/>
+      <c r="W53" s="96"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="97"/>
+      <c r="Y53" s="95"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="130" t="s">
+      <c r="A54" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="132"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="134"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="113"/>
       <c r="G54" s="80"/>
       <c r="H54" s="5"/>
       <c r="I54" s="81"/>
@@ -4297,33 +4346,33 @@
       <c r="O54" s="80"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="81"/>
-      <c r="S54" s="98"/>
+      <c r="S54" s="96"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="97"/>
-      <c r="W54" s="98"/>
+      <c r="U54" s="95"/>
+      <c r="W54" s="96"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="97"/>
+      <c r="Y54" s="95"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="131" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="132"/>
-      <c r="D55" s="133"/>
-      <c r="E55" s="134" t="s">
-        <v>52</v>
+      <c r="A55" s="112" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="124"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="113" t="s">
+        <v>49</v>
       </c>
       <c r="G55" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" s="81" t="s">
         <v>53</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="81" t="s">
-        <v>56</v>
       </c>
       <c r="K55" s="80"/>
       <c r="L55" s="5"/>
@@ -4331,12 +4380,12 @@
       <c r="O55" s="80"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="81"/>
-      <c r="S55" s="98"/>
+      <c r="S55" s="96"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="97"/>
-      <c r="W55" s="98"/>
+      <c r="U55" s="95"/>
+      <c r="W55" s="96"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="97"/>
+      <c r="Y55" s="95"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="36"/>
@@ -4353,18 +4402,18 @@
       <c r="O56" s="80"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="81"/>
-      <c r="S56" s="98"/>
+      <c r="S56" s="96"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="97"/>
-      <c r="W56" s="98"/>
+      <c r="U56" s="95"/>
+      <c r="W56" s="96"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="97"/>
+      <c r="Y56" s="95"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="112"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="116"/>
       <c r="E57" s="43"/>
       <c r="G57" s="80"/>
       <c r="H57" s="5"/>
@@ -4375,18 +4424,18 @@
       <c r="O57" s="80"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="81"/>
-      <c r="S57" s="98"/>
+      <c r="S57" s="96"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="97"/>
-      <c r="W57" s="98"/>
+      <c r="U57" s="95"/>
+      <c r="W57" s="96"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="97"/>
+      <c r="Y57" s="95"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="112"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="116"/>
       <c r="E58" s="43"/>
       <c r="G58" s="80"/>
       <c r="H58" s="5"/>
@@ -4397,18 +4446,18 @@
       <c r="O58" s="80"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="81"/>
-      <c r="S58" s="98"/>
+      <c r="S58" s="96"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="97"/>
-      <c r="W58" s="98"/>
+      <c r="U58" s="95"/>
+      <c r="W58" s="96"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="97"/>
+      <c r="Y58" s="95"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
-      <c r="B59" s="110"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
+      <c r="B59" s="114"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="116"/>
       <c r="E59" s="43"/>
       <c r="G59" s="80"/>
       <c r="H59" s="5"/>
@@ -4419,18 +4468,18 @@
       <c r="O59" s="80"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="81"/>
-      <c r="S59" s="98"/>
+      <c r="S59" s="96"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="97"/>
-      <c r="W59" s="98"/>
+      <c r="U59" s="95"/>
+      <c r="W59" s="96"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="97"/>
+      <c r="Y59" s="95"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
-      <c r="B60" s="110"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="116"/>
       <c r="E60" s="43"/>
       <c r="G60" s="80"/>
       <c r="H60" s="5"/>
@@ -4441,42 +4490,43 @@
       <c r="O60" s="80"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="81"/>
-      <c r="S60" s="98"/>
+      <c r="S60" s="96"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="97"/>
-      <c r="W60" s="98"/>
+      <c r="U60" s="95"/>
+      <c r="W60" s="96"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="97"/>
+      <c r="Y60" s="95"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="115"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="119"/>
       <c r="E61" s="44"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="88"/>
-      <c r="K61" s="86"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="88"/>
-      <c r="O61" s="86"/>
-      <c r="P61" s="87"/>
-      <c r="Q61" s="88"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="102"/>
-      <c r="U61" s="103"/>
-      <c r="W61" s="101"/>
-      <c r="X61" s="102"/>
-      <c r="Y61" s="103"/>
+      <c r="G61" s="84"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="86"/>
+      <c r="K61" s="84"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="86"/>
+      <c r="O61" s="84"/>
+      <c r="P61" s="85"/>
+      <c r="Q61" s="86"/>
+      <c r="S61" s="99"/>
+      <c r="T61" s="100"/>
+      <c r="U61" s="101"/>
+      <c r="W61" s="99"/>
+      <c r="X61" s="100"/>
+      <c r="Y61" s="101"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u9hAhU2hOGDIFtNJ9+vcBaZg/DFR6rY93KA4+7B9UNoNWVTSKUfHOBUBrVgqjB+QLxmud0qhe5btlfXcYNpi1g==" saltValue="rHS5wFHIllLeTKebUA/CAg==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gvzEjdS/W1OtG8vEJY+rGxzDGtI/XVs36PCf4SmDion/I4J24USwsR6g7gqA9Hos6kXxpvq0DSnMUvvMwd5bAw==" saltValue="GsrY3ejrD8I6RZ+8kjEfAw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A28:Y377 A39:Y48 A51:Y61" name="Questionnaire"/>
+    <protectedRange sqref="S4:Y61" name="customEntities"/>
+    <protectedRange sqref="A1:E1" name="Titel"/>
     <protectedRange sqref="A7:Y24" name="Contact Fields"/>
-    <protectedRange sqref="A1:E1" name="Titel"/>
+    <protectedRange sqref="A28:Y377" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
     <mergeCell ref="A1:E1"/>
@@ -4502,7 +4552,7 @@
     <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A8:AG38 B39:AG48">
+  <conditionalFormatting sqref="B39:AG48 A8:AG38">
     <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C8="x"</formula>
     </cfRule>
@@ -4558,6 +4608,14 @@
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I51:I61 I7:I24 M7:M24 U7:U24 Y7:Y24 Y28:Y37 U28:U37 Q28:Q37 M28:M37 I28:I37 I39:I48 M39:M48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 Q7:Q24" xr:uid="{49361070-8F3F-4036-84A8-C4FE1153B3B6}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{EC85AA08-662A-4A9E-AFAB-FD296B25824E}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4565,6 +4623,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4773,22 +4840,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4807,7 +4873,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
@@ -4822,12 +4888,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5CA5B01-8CB5-47C3-8E01-DCCAAFB59FF3}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="14_{E967534C-440A-4CC7-968F-991BBAB01960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{04E51490-DB49-42C3-9D26-61D44217E11E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,12 +177,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>not used</t>
-  </si>
-  <si>
     <t>"snapADDY"</t>
   </si>
   <si>
@@ -352,6 +346,12 @@
   </si>
   <si>
     <t>eine Notiz</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
   </si>
 </sst>
 </file>
@@ -1704,42 +1704,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1760,6 +1724,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2692,11 +2692,11 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -2710,25 +2710,25 @@
     <col min="14" max="14" width="1.7109375" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" customWidth="1"/>
-    <col min="19" max="21" width="15" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="1.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="25" width="15" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="15" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" customWidth="1"/>
+    <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="126" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="A1" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2741,44 +2741,44 @@
       <c r="G3" s="60"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="41" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="E4" s="42"/>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="O4" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="131" t="s">
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="S4" s="115" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="116"/>
+      <c r="U4" s="117"/>
+      <c r="W4" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="O4" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="S4" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" s="128"/>
-      <c r="U4" s="129"/>
-      <c r="W4" s="127" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="129"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="117"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
       <c r="E6" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="73" t="s">
         <v>27</v>
@@ -2863,10 +2863,10 @@
     </row>
     <row r="8" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="64"/>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="27"/>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="27"/>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="27"/>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="27"/>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>16</v>
@@ -3084,7 +3084,7 @@
         <v>39</v>
       </c>
       <c r="O13" s="76" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>22</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="82" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L14" s="68" t="s">
         <v>17</v>
@@ -3127,7 +3127,7 @@
         <v>39</v>
       </c>
       <c r="O14" s="82" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P14" s="68" t="s">
         <v>23</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="27"/>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="83" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>18</v>
@@ -3170,7 +3170,7 @@
         <v>39</v>
       </c>
       <c r="O15" s="83" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>24</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="27"/>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="80" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>19</v>
@@ -3213,7 +3213,7 @@
         <v>39</v>
       </c>
       <c r="O16" s="80" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>25</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="80" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>20</v>
@@ -3256,7 +3256,7 @@
         <v>39</v>
       </c>
       <c r="O17" s="80" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>26</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="27"/>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="27"/>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="20" spans="1:25" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="62"/>
       <c r="C20" s="63"/>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="27"/>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="27"/>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="27"/>
@@ -3546,35 +3546,35 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="120" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="132" t="s">
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
       <c r="V26" s="17"/>
-      <c r="W26" s="130" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
+      <c r="W26" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="54" t="s">
@@ -3586,7 +3586,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" s="73" t="s">
         <v>27</v>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>37</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>38</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>39</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>40</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="39"/>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="39"/>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="39"/>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="39"/>
@@ -3840,7 +3840,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="39"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="40"/>
@@ -3896,7 +3896,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G38" s="73" t="s">
         <v>27</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="38"/>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="109" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="34"/>
       <c r="C40" s="39"/>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="109" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="34"/>
       <c r="C41" s="39"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="39"/>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="109" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="39"/>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="39"/>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="109" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="39"/>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="34"/>
       <c r="C46" s="39"/>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="109" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="39"/>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="109" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="40"/>
@@ -4201,7 +4201,7 @@
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G50" s="73" t="s">
         <v>27</v>
@@ -4251,13 +4251,13 @@
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="122"/>
+        <v>84</v>
+      </c>
+      <c r="B51" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="122"/>
+      <c r="D51" s="123"/>
       <c r="E51" s="111"/>
       <c r="G51" s="80"/>
       <c r="H51" s="5"/>
@@ -4277,13 +4277,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="B52" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="124"/>
-      <c r="D52" s="125"/>
+        <v>85</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="125"/>
+      <c r="D52" s="126"/>
       <c r="E52" s="113"/>
       <c r="G52" s="80"/>
       <c r="H52" s="5"/>
@@ -4303,13 +4303,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="124"/>
-      <c r="D53" s="125"/>
+        <v>86</v>
+      </c>
+      <c r="B53" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="125"/>
+      <c r="D53" s="126"/>
       <c r="E53" s="113"/>
       <c r="G53" s="80"/>
       <c r="H53" s="5"/>
@@ -4329,13 +4329,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="112" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="124"/>
-      <c r="D54" s="125"/>
+        <v>87</v>
+      </c>
+      <c r="B54" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="125"/>
+      <c r="D54" s="126"/>
       <c r="E54" s="113"/>
       <c r="G54" s="80"/>
       <c r="H54" s="5"/>
@@ -4355,24 +4355,24 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="125"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C55" s="124"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="81" t="s">
         <v>51</v>
-      </c>
-      <c r="I55" s="81" t="s">
-        <v>53</v>
       </c>
       <c r="K55" s="80"/>
       <c r="L55" s="5"/>
@@ -4411,9 +4411,9 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="36"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="116"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="129"/>
       <c r="E57" s="43"/>
       <c r="G57" s="80"/>
       <c r="H57" s="5"/>
@@ -4433,9 +4433,9 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="36"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="116"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="129"/>
       <c r="E58" s="43"/>
       <c r="G58" s="80"/>
       <c r="H58" s="5"/>
@@ -4455,9 +4455,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="36"/>
-      <c r="B59" s="114"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="116"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="129"/>
       <c r="E59" s="43"/>
       <c r="G59" s="80"/>
       <c r="H59" s="5"/>
@@ -4477,9 +4477,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="36"/>
-      <c r="B60" s="114"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="116"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="129"/>
       <c r="E60" s="43"/>
       <c r="G60" s="80"/>
       <c r="H60" s="5"/>
@@ -4499,9 +4499,9 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="118"/>
-      <c r="D61" s="119"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="132"/>
       <c r="E61" s="44"/>
       <c r="G61" s="84"/>
       <c r="H61" s="85"/>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="gvzEjdS/W1OtG8vEJY+rGxzDGtI/XVs36PCf4SmDion/I4J24USwsR6g7gqA9Hos6kXxpvq0DSnMUvvMwd5bAw==" saltValue="GsrY3ejrD8I6RZ+8kjEfAw==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="S4:Y61" name="customEntities"/>
     <protectedRange sqref="A1:E1" name="Titel"/>
@@ -4529,6 +4529,16 @@
     <protectedRange sqref="A28:Y377" name="Questionnaire"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
@@ -4540,16 +4550,6 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B39:AG48 A8:AG38">
@@ -4623,12 +4623,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4841,15 +4838,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4874,18 +4883,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D7BA4-2D6D-4F62-B37A-FDFE804D6964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C555FE-5B9D-46FF-A1E6-0FA9D0BEB5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,6 +34,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{3D32C2CB-D164-4EC3-B642-C515AF45A065}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{EA36415C-F190-435F-9081-5882A8A6A27F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="99">
   <si>
@@ -91,12 +129,6 @@
     <t>CRM System: SAGE</t>
   </si>
   <si>
-    <t>SAGE: Custom Entity</t>
-  </si>
-  <si>
-    <t>SAGE: Custom Entity (optional)</t>
-  </si>
-  <si>
     <t>SAGE: Person</t>
   </si>
   <si>
@@ -194,9 +226,6 @@
   </si>
   <si>
     <t>SAGE: Interessent</t>
-  </si>
-  <si>
-    <t>Pflichtfel</t>
   </si>
   <si>
     <t>nicht benötigt</t>
@@ -363,12 +392,21 @@
   <si>
     <t xml:space="preserve">Group 2 </t>
   </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>SAGE: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SAGE: Additional Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +495,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -502,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="104">
+  <borders count="105">
     <border>
       <left/>
       <right/>
@@ -1794,6 +1839,21 @@
         <color rgb="FF9DA600"/>
       </right>
       <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF9DA600"/>
       </bottom>
@@ -1874,9 +1934,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2013,6 +2070,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2039,36 +2129,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3586,12 +3646,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3679,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3638,8 +3698,8 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="G3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3647,94 +3707,94 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="31" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="149" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="G4" s="146" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="O4" s="149" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="S4" s="146" t="s">
+      <c r="K4" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="O4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="147"/>
-      <c r="U4" s="148"/>
-      <c r="W4" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="148"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="S4" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="144"/>
+      <c r="U4" s="145"/>
+      <c r="W4" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="39" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="57" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="56" t="s">
+      <c r="O6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="70" t="s">
+      <c r="S6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="71" t="s">
+      <c r="T6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="70" t="s">
+      <c r="W6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="X6" s="71" t="s">
+      <c r="X6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="72" t="s">
+      <c r="Y6" s="71" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3744,533 +3804,533 @@
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="E7" s="36"/>
-      <c r="G7" s="59"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="60"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="60"/>
-      <c r="O7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="73"/>
+      <c r="Q7" s="59"/>
+      <c r="S7" s="72"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="74"/>
-      <c r="W7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="W7" s="72"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="74"/>
-    </row>
-    <row r="8" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="G8" s="59" t="s">
-        <v>55</v>
+      <c r="Y7" s="73"/>
+    </row>
+    <row r="8" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="G8" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="63" t="s">
+      <c r="J8" s="49"/>
+      <c r="K8" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="63"/>
-      <c r="S8" s="76" t="s">
+      <c r="O8" s="61"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="62"/>
+      <c r="S8" s="75" t="s">
         <v>11</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="75"/>
-      <c r="W8" s="76" t="s">
+      <c r="U8" s="74"/>
+      <c r="W8" s="75" t="s">
         <v>11</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="75"/>
+      <c r="Y8" s="74"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
-      <c r="G9" s="59" t="s">
-        <v>56</v>
+      <c r="G9" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="63" t="s">
+      <c r="K9" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="61"/>
-      <c r="S9" s="76" t="s">
+      <c r="O9" s="61"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="60"/>
+      <c r="S9" s="75" t="s">
         <v>13</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="75"/>
-      <c r="W9" s="76" t="s">
+      <c r="U9" s="74"/>
+      <c r="W9" s="75" t="s">
         <v>13</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="75"/>
+      <c r="Y9" s="74"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
-      <c r="G10" s="59" t="s">
-        <v>57</v>
+      <c r="G10" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="63" t="s">
+      <c r="K10" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="63"/>
-      <c r="S10" s="76"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="62"/>
+      <c r="S10" s="75"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="75"/>
-      <c r="W10" s="76"/>
+      <c r="U10" s="74"/>
+      <c r="W10" s="75"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="75"/>
+      <c r="Y10" s="74"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="37"/>
-      <c r="G11" s="59" t="s">
-        <v>58</v>
+      <c r="G11" s="58" t="s">
+        <v>55</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="63" t="s">
+      <c r="K11" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="63"/>
-      <c r="S11" s="76"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="62"/>
+      <c r="S11" s="75"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="U11" s="74"/>
+      <c r="W11" s="75"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="75"/>
+      <c r="Y11" s="74"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="37"/>
-      <c r="G12" s="59" t="s">
-        <v>59</v>
+      <c r="G12" s="58" t="s">
+        <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="63"/>
-      <c r="O12" s="62" t="s">
-        <v>68</v>
+      <c r="K12" s="61"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="62"/>
+      <c r="O12" s="61" t="s">
+        <v>65</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="76"/>
+      <c r="S12" s="75"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="75"/>
-      <c r="W12" s="76"/>
+      <c r="U12" s="74"/>
+      <c r="W12" s="75"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="75"/>
+      <c r="Y12" s="74"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="37"/>
-      <c r="G13" s="59" t="s">
-        <v>60</v>
+      <c r="G13" s="58" t="s">
+        <v>57</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="59" t="s">
         <v>9</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="60" t="s">
+      <c r="K13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="62" t="s">
-        <v>60</v>
+      <c r="O13" s="61" t="s">
+        <v>57</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q13" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13" s="75"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="75"/>
-      <c r="W13" s="76"/>
+      <c r="U13" s="74"/>
+      <c r="W13" s="75"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="75"/>
-    </row>
-    <row r="14" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="G14" s="59" t="s">
-        <v>61</v>
+      <c r="Y13" s="74"/>
+    </row>
+    <row r="14" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="58" t="s">
+        <v>58</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="65" t="s">
+      <c r="J14" s="49"/>
+      <c r="K14" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="65" t="s">
+      <c r="O14" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="77"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="78"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="78"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="77"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="77"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="37"/>
-      <c r="G15" s="59" t="s">
-        <v>62</v>
+      <c r="G15" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="65" t="s">
         <v>9</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="66" t="s">
+      <c r="K15" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="62" t="s">
-        <v>62</v>
+      <c r="O15" s="61" t="s">
+        <v>59</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15" s="75"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="75"/>
-      <c r="W15" s="76"/>
+      <c r="U15" s="74"/>
+      <c r="W15" s="75"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="75"/>
+      <c r="Y15" s="74"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
-      <c r="G16" s="59" t="s">
-        <v>63</v>
+      <c r="G16" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="63" t="s">
+      <c r="K16" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="62" t="s">
-        <v>63</v>
+      <c r="O16" s="61" t="s">
+        <v>60</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="76"/>
+      <c r="S16" s="75"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="75"/>
-      <c r="W16" s="76"/>
+      <c r="U16" s="74"/>
+      <c r="W16" s="75"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="75"/>
+      <c r="Y16" s="74"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
-      <c r="G17" s="59" t="s">
-        <v>64</v>
+      <c r="G17" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="L17" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="63" t="s">
+      <c r="K17" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="62" t="s">
-        <v>64</v>
+      <c r="O17" s="61" t="s">
+        <v>61</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="76"/>
+      <c r="S17" s="75"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="75"/>
-      <c r="W17" s="76"/>
+      <c r="U17" s="74"/>
+      <c r="W17" s="75"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="75"/>
+      <c r="Y17" s="74"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="37"/>
-      <c r="G18" s="59" t="s">
-        <v>65</v>
+      <c r="G18" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="63"/>
-      <c r="O18" s="62" t="s">
-        <v>65</v>
+      <c r="K18" s="61"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="62"/>
+      <c r="O18" s="61" t="s">
+        <v>62</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="S18" s="76"/>
+      <c r="S18" s="75"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="75"/>
-      <c r="W18" s="76"/>
+      <c r="U18" s="74"/>
+      <c r="W18" s="75"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="75"/>
+      <c r="Y18" s="74"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="37"/>
-      <c r="G19" s="59"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="63"/>
+      <c r="I19" s="62"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="63"/>
-      <c r="O19" s="62"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="62"/>
+      <c r="O19" s="61"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="63"/>
-      <c r="S19" s="76"/>
+      <c r="Q19" s="62"/>
+      <c r="S19" s="75"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="75"/>
-      <c r="W19" s="76"/>
+      <c r="U19" s="74"/>
+      <c r="W19" s="75"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="75"/>
-    </row>
-    <row r="20" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="Y19" s="74"/>
+    </row>
+    <row r="20" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="G20" s="59" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="G20" s="58" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="65"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="65"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="78"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="78"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="64"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="64"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="77"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="77"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -4280,40 +4340,40 @@
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="37"/>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="58" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="62" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21" s="63" t="s">
+      <c r="L21" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="62" t="s">
-        <v>81</v>
+      <c r="O21" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="76"/>
+      <c r="S21" s="75"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="75"/>
-      <c r="W21" s="76"/>
+      <c r="U21" s="74"/>
+      <c r="W21" s="75"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="75"/>
+      <c r="Y21" s="74"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4323,145 +4383,145 @@
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="37"/>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="58" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="59" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="59" t="s">
+      <c r="K22" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="60" t="s">
+      <c r="L22" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="58" t="s">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q22" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q22" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="S22" s="73"/>
+      <c r="S22" s="72"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="74"/>
-      <c r="W22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="W22" s="72"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="74"/>
+      <c r="Y22" s="73"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
-      <c r="G23" s="59" t="s">
-        <v>67</v>
+      <c r="G23" s="58" t="s">
+        <v>64</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="59" t="s">
         <v>9</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="60"/>
-      <c r="O23" s="59"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="59"/>
+      <c r="O23" s="58"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="60"/>
-      <c r="S23" s="73"/>
+      <c r="Q23" s="59"/>
+      <c r="S23" s="72"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="74"/>
-      <c r="W23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="W23" s="72"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="74"/>
+      <c r="Y23" s="73"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="37"/>
-      <c r="G24" s="59" t="s">
-        <v>48</v>
+      <c r="G24" s="58" t="s">
+        <v>46</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="59" t="s">
-        <v>48</v>
+      <c r="K24" s="58" t="s">
+        <v>46</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="59" t="s">
-        <v>48</v>
+      <c r="O24" s="58" t="s">
+        <v>46</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="73"/>
+      <c r="S24" s="72"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="74"/>
-      <c r="W24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="W24" s="72"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="74"/>
+      <c r="Y24" s="73"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="37"/>
-      <c r="G25" s="59" t="s">
-        <v>50</v>
+      <c r="G25" s="58" t="s">
+        <v>48</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="59" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="59"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="60"/>
-      <c r="O25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="O25" s="58"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="60"/>
-      <c r="S25" s="73"/>
+      <c r="Q25" s="59"/>
+      <c r="S25" s="72"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="74"/>
-      <c r="W25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="W25" s="72"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="74"/>
+      <c r="Y25" s="73"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
@@ -4469,22 +4529,22 @@
       <c r="C26" s="26"/>
       <c r="D26" s="27"/>
       <c r="E26" s="38"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="69"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="68"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="69"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="69"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="81"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="81"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="68"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="68"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="80"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="80"/>
     </row>
     <row r="27" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G27" s="8"/>
@@ -4497,743 +4557,743 @@
       <c r="O27" s="8"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="9"/>
-      <c r="S27" s="54"/>
+      <c r="S27" s="53"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="55"/>
+      <c r="U27" s="54"/>
       <c r="W27" s="8"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="G28" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="140" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="142"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="143" t="s">
+      <c r="A28" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="G28" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="147" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="148"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="144"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="143" t="s">
-        <v>18</v>
-      </c>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="145"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="152"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" s="154"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="155"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="133" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="136" t="s">
+      <c r="A29" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="114" t="s">
+      <c r="G29" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="112" t="s">
+      <c r="H29" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="115" t="s">
+      <c r="I29" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="114" t="s">
+      <c r="K29" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="112" t="s">
+      <c r="L29" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="115" t="s">
+      <c r="M29" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="114" t="s">
+      <c r="O29" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="112" t="s">
+      <c r="P29" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="115" t="s">
+      <c r="Q29" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="70" t="s">
+      <c r="S29" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="71" t="s">
+      <c r="T29" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="U29" s="72" t="s">
+      <c r="U29" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="120"/>
-      <c r="W29" s="70" t="s">
+      <c r="V29" s="119"/>
+      <c r="W29" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="X29" s="71" t="s">
+      <c r="X29" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="Y29" s="72" t="s">
+      <c r="Y29" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="98" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="59"/>
+        <v>82</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="58"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="63"/>
-      <c r="K30" s="59"/>
+      <c r="I30" s="62"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="63"/>
-      <c r="O30" s="59"/>
+      <c r="M30" s="62"/>
+      <c r="O30" s="58"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="63"/>
-      <c r="S30" s="76"/>
+      <c r="Q30" s="62"/>
+      <c r="S30" s="75"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="75"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="76"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="119"/>
+      <c r="W30" s="75"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="75"/>
+      <c r="Y30" s="74"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="98"/>
-      <c r="G31" s="59"/>
+        <v>85</v>
+      </c>
+      <c r="B31" s="98"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="97"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="63"/>
-      <c r="K31" s="59"/>
+      <c r="I31" s="62"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="63"/>
-      <c r="O31" s="59"/>
+      <c r="M31" s="62"/>
+      <c r="O31" s="58"/>
       <c r="P31" s="6"/>
-      <c r="Q31" s="63"/>
-      <c r="S31" s="76"/>
+      <c r="Q31" s="62"/>
+      <c r="S31" s="75"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="76"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="75"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="75"/>
+      <c r="Y31" s="74"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="103"/>
-      <c r="G32" s="59"/>
+        <v>86</v>
+      </c>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="102"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="63"/>
-      <c r="K32" s="59"/>
+      <c r="I32" s="62"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="63"/>
-      <c r="O32" s="59"/>
+      <c r="M32" s="62"/>
+      <c r="O32" s="58"/>
       <c r="P32" s="6"/>
-      <c r="Q32" s="63"/>
-      <c r="S32" s="76"/>
+      <c r="Q32" s="62"/>
+      <c r="S32" s="75"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="76"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="75"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="75"/>
+      <c r="Y32" s="74"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="101"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="103"/>
-      <c r="G33" s="59"/>
+        <v>87</v>
+      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="102"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="63"/>
-      <c r="K33" s="59"/>
+      <c r="I33" s="62"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="63"/>
-      <c r="O33" s="59"/>
+      <c r="M33" s="62"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="63"/>
-      <c r="S33" s="76"/>
+      <c r="Q33" s="62"/>
+      <c r="S33" s="75"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="76"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="75"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="75"/>
+      <c r="Y33" s="74"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="103"/>
-      <c r="G34" s="59"/>
+        <v>88</v>
+      </c>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="102"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="63"/>
-      <c r="K34" s="59"/>
+      <c r="I34" s="62"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="63"/>
-      <c r="O34" s="59"/>
+      <c r="M34" s="62"/>
+      <c r="O34" s="58"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="63"/>
-      <c r="S34" s="76"/>
+      <c r="Q34" s="62"/>
+      <c r="S34" s="75"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="76"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="119"/>
+      <c r="W34" s="75"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="75"/>
+      <c r="Y34" s="74"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="103"/>
-      <c r="G35" s="59"/>
+        <v>89</v>
+      </c>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="102"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="63"/>
-      <c r="K35" s="59"/>
+      <c r="I35" s="62"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="63"/>
-      <c r="O35" s="59"/>
+      <c r="M35" s="62"/>
+      <c r="O35" s="58"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="63"/>
-      <c r="S35" s="76"/>
+      <c r="Q35" s="62"/>
+      <c r="S35" s="75"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="76"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="119"/>
+      <c r="W35" s="75"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="75"/>
+      <c r="Y35" s="74"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="103"/>
-      <c r="G36" s="59"/>
+        <v>90</v>
+      </c>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="102"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="63"/>
-      <c r="K36" s="59"/>
+      <c r="I36" s="62"/>
+      <c r="K36" s="58"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="63"/>
-      <c r="O36" s="59"/>
+      <c r="M36" s="62"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="63"/>
-      <c r="S36" s="76"/>
+      <c r="Q36" s="62"/>
+      <c r="S36" s="75"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="76"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="119"/>
+      <c r="W36" s="75"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="75"/>
+      <c r="Y36" s="74"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="103"/>
-      <c r="G37" s="59"/>
+        <v>91</v>
+      </c>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="102"/>
+      <c r="G37" s="58"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="63"/>
-      <c r="K37" s="59"/>
+      <c r="I37" s="62"/>
+      <c r="K37" s="58"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="63"/>
-      <c r="O37" s="59"/>
+      <c r="M37" s="62"/>
+      <c r="O37" s="58"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="63"/>
-      <c r="S37" s="76"/>
+      <c r="Q37" s="62"/>
+      <c r="S37" s="75"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="120"/>
-      <c r="W37" s="76"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="119"/>
+      <c r="W37" s="75"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="75"/>
+      <c r="Y37" s="74"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="103"/>
-      <c r="G38" s="59"/>
+        <v>92</v>
+      </c>
+      <c r="B38" s="100"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="102"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="63"/>
-      <c r="K38" s="59"/>
+      <c r="I38" s="62"/>
+      <c r="K38" s="58"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="63"/>
-      <c r="O38" s="59"/>
+      <c r="M38" s="62"/>
+      <c r="O38" s="58"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="63"/>
-      <c r="S38" s="76"/>
+      <c r="Q38" s="62"/>
+      <c r="S38" s="75"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="120"/>
-      <c r="W38" s="76"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="119"/>
+      <c r="W38" s="75"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="75"/>
+      <c r="Y38" s="74"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="101"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="103"/>
-      <c r="G39" s="59"/>
+        <v>93</v>
+      </c>
+      <c r="B39" s="100"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="102"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="63"/>
-      <c r="K39" s="59"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="58"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="63"/>
-      <c r="O39" s="59"/>
+      <c r="M39" s="62"/>
+      <c r="O39" s="58"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="63"/>
-      <c r="S39" s="76"/>
+      <c r="Q39" s="62"/>
+      <c r="S39" s="75"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="120"/>
-      <c r="W39" s="76"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="75"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="75"/>
+      <c r="Y39" s="74"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="104"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="106"/>
-      <c r="G40" s="59"/>
+        <v>94</v>
+      </c>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="105"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="60"/>
-      <c r="K40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="K40" s="58"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="60"/>
-      <c r="O40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="O40" s="58"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="60"/>
-      <c r="S40" s="73"/>
+      <c r="Q40" s="59"/>
+      <c r="S40" s="72"/>
       <c r="T40" s="6"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="120"/>
-      <c r="W40" s="73"/>
+      <c r="U40" s="73"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="72"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="74"/>
+      <c r="Y40" s="73"/>
     </row>
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="106"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="69"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="69"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="69"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="120"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="80"/>
-      <c r="Y41" s="81"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="105"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="68"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="68"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="68"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="119"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="80"/>
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128" t="s">
+      <c r="A42" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="114" t="s">
+      <c r="G42" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="115" t="s">
+      <c r="I42" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="114" t="s">
+      <c r="K42" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="112" t="s">
+      <c r="L42" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="M42" s="115" t="s">
+      <c r="M42" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="117" t="s">
+      <c r="O42" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="113" t="s">
+      <c r="P42" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="Q42" s="118" t="s">
+      <c r="Q42" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="121" t="s">
+      <c r="S42" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="T42" s="122" t="s">
+      <c r="T42" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="U42" s="123" t="s">
+      <c r="U42" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="120"/>
-      <c r="W42" s="121" t="s">
+      <c r="V42" s="119"/>
+      <c r="W42" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="X42" s="122" t="s">
+      <c r="X42" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="Y42" s="123" t="s">
+      <c r="Y42" s="122" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="98"/>
-      <c r="G43" s="62"/>
+      <c r="A43" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="97"/>
+      <c r="G43" s="61"/>
       <c r="H43" s="5"/>
-      <c r="I43" s="63"/>
-      <c r="K43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="K43" s="61"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="63"/>
-      <c r="O43" s="116"/>
+      <c r="M43" s="62"/>
+      <c r="O43" s="115"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="66"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="125"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="125"/>
-      <c r="Y43" s="126"/>
+      <c r="Q43" s="65"/>
+      <c r="S43" s="123"/>
+      <c r="T43" s="124"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="119"/>
+      <c r="W43" s="123"/>
+      <c r="X43" s="124"/>
+      <c r="Y43" s="125"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="103"/>
-      <c r="G44" s="62"/>
+        <v>86</v>
+      </c>
+      <c r="B44" s="100"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="102"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="63"/>
-      <c r="K44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="K44" s="61"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="63"/>
-      <c r="O44" s="62"/>
+      <c r="M44" s="62"/>
+      <c r="O44" s="61"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="63"/>
-      <c r="S44" s="76"/>
+      <c r="Q44" s="62"/>
+      <c r="S44" s="75"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="75"/>
-      <c r="V44" s="120"/>
-      <c r="W44" s="76"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="119"/>
+      <c r="W44" s="75"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="75"/>
+      <c r="Y44" s="74"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="103"/>
-      <c r="G45" s="62"/>
+        <v>87</v>
+      </c>
+      <c r="B45" s="100"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="102"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="63"/>
-      <c r="K45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="K45" s="61"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="63"/>
-      <c r="O45" s="62"/>
+      <c r="M45" s="62"/>
+      <c r="O45" s="61"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="63"/>
-      <c r="S45" s="76"/>
+      <c r="Q45" s="62"/>
+      <c r="S45" s="75"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="75"/>
-      <c r="V45" s="120"/>
-      <c r="W45" s="76"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="119"/>
+      <c r="W45" s="75"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="75"/>
+      <c r="Y45" s="74"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="101"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="103"/>
-      <c r="G46" s="62"/>
+        <v>88</v>
+      </c>
+      <c r="B46" s="100"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="102"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="63"/>
-      <c r="K46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="K46" s="61"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="63"/>
-      <c r="O46" s="62"/>
+      <c r="M46" s="62"/>
+      <c r="O46" s="61"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="63"/>
-      <c r="S46" s="76"/>
+      <c r="Q46" s="62"/>
+      <c r="S46" s="75"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="120"/>
-      <c r="W46" s="76"/>
+      <c r="U46" s="74"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="75"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="75"/>
+      <c r="Y46" s="74"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="103"/>
-      <c r="G47" s="62"/>
+        <v>89</v>
+      </c>
+      <c r="B47" s="100"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="102"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="5"/>
-      <c r="I47" s="63"/>
-      <c r="K47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="K47" s="61"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="63"/>
-      <c r="O47" s="62"/>
+      <c r="M47" s="62"/>
+      <c r="O47" s="61"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="63"/>
-      <c r="S47" s="76"/>
+      <c r="Q47" s="62"/>
+      <c r="S47" s="75"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="75"/>
-      <c r="V47" s="120"/>
-      <c r="W47" s="76"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="119"/>
+      <c r="W47" s="75"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="75"/>
+      <c r="Y47" s="74"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="103"/>
-      <c r="G48" s="62"/>
+        <v>90</v>
+      </c>
+      <c r="B48" s="100"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="102"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="63"/>
-      <c r="K48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="K48" s="61"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="63"/>
-      <c r="O48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="O48" s="61"/>
       <c r="P48" s="5"/>
-      <c r="Q48" s="63"/>
-      <c r="S48" s="76"/>
+      <c r="Q48" s="62"/>
+      <c r="S48" s="75"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="75"/>
-      <c r="V48" s="120"/>
-      <c r="W48" s="76"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="119"/>
+      <c r="W48" s="75"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="75"/>
+      <c r="Y48" s="74"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="103"/>
-      <c r="G49" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="102"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="63"/>
-      <c r="K49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="K49" s="61"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="63"/>
-      <c r="O49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="O49" s="61"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="63"/>
-      <c r="S49" s="76"/>
+      <c r="Q49" s="62"/>
+      <c r="S49" s="75"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="75"/>
-      <c r="V49" s="120"/>
-      <c r="W49" s="76"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="119"/>
+      <c r="W49" s="75"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="75"/>
+      <c r="Y49" s="74"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="103"/>
-      <c r="G50" s="62"/>
+        <v>92</v>
+      </c>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="102"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="63"/>
-      <c r="K50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="K50" s="61"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="63"/>
-      <c r="O50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="O50" s="61"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="63"/>
-      <c r="S50" s="76"/>
+      <c r="Q50" s="62"/>
+      <c r="S50" s="75"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="75"/>
-      <c r="V50" s="120"/>
-      <c r="W50" s="76"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="119"/>
+      <c r="W50" s="75"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="75"/>
+      <c r="Y50" s="74"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="103"/>
-      <c r="G51" s="62"/>
+        <v>93</v>
+      </c>
+      <c r="B51" s="100"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="102"/>
+      <c r="G51" s="61"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="63"/>
-      <c r="K51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="K51" s="61"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="63"/>
-      <c r="O51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="O51" s="61"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="63"/>
-      <c r="S51" s="76"/>
+      <c r="Q51" s="62"/>
+      <c r="S51" s="75"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="75"/>
-      <c r="V51" s="120"/>
-      <c r="W51" s="76"/>
+      <c r="U51" s="74"/>
+      <c r="V51" s="119"/>
+      <c r="W51" s="75"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="75"/>
+      <c r="Y51" s="74"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="106"/>
-      <c r="G52" s="59"/>
+        <v>94</v>
+      </c>
+      <c r="B52" s="103"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="105"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="60"/>
-      <c r="K52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="K52" s="58"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="60"/>
-      <c r="O52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="O52" s="58"/>
       <c r="P52" s="6"/>
-      <c r="Q52" s="60"/>
-      <c r="S52" s="73"/>
+      <c r="Q52" s="59"/>
+      <c r="S52" s="72"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="74"/>
-      <c r="V52" s="120"/>
-      <c r="W52" s="73"/>
+      <c r="U52" s="73"/>
+      <c r="V52" s="119"/>
+      <c r="W52" s="72"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="74"/>
+      <c r="Y52" s="73"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="109"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="69"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="69"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="69"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="80"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="120"/>
-      <c r="W53" s="79"/>
-      <c r="X53" s="80"/>
-      <c r="Y53" s="81"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="108"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="68"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="68"/>
+      <c r="O53" s="66"/>
+      <c r="P53" s="67"/>
+      <c r="Q53" s="68"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="79"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="119"/>
+      <c r="W53" s="78"/>
+      <c r="X53" s="79"/>
+      <c r="Y53" s="80"/>
     </row>
     <row r="54" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G54" s="8"/>
@@ -5244,12 +5304,12 @@
       <c r="Q54" s="9"/>
       <c r="S54" s="8"/>
       <c r="U54" s="9"/>
-      <c r="V54" s="120"/>
+      <c r="V54" s="119"/>
       <c r="W54" s="8"/>
       <c r="Y54" s="9"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="129" t="s">
+      <c r="A55" s="128" t="s">
         <v>8</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -5260,319 +5320,319 @@
       <c r="E55" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G55" s="56" t="s">
+      <c r="G55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="58" t="s">
+      <c r="I55" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="56" t="s">
+      <c r="K55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="L55" s="57" t="s">
+      <c r="L55" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M55" s="58" t="s">
+      <c r="M55" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="O55" s="56" t="s">
+      <c r="O55" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P55" s="57" t="s">
+      <c r="P55" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="Q55" s="58" t="s">
+      <c r="Q55" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="S55" s="70" t="s">
+      <c r="S55" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="T55" s="71" t="s">
+      <c r="T55" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="U55" s="72" t="s">
+      <c r="U55" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="70" t="s">
+      <c r="V55" s="119"/>
+      <c r="W55" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="X55" s="71" t="s">
+      <c r="X55" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="Y55" s="72" t="s">
+      <c r="Y55" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="88"/>
-      <c r="D56" s="89"/>
+        <v>66</v>
+      </c>
+      <c r="B56" s="86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="87"/>
+      <c r="D56" s="88"/>
       <c r="E56" s="33"/>
-      <c r="G56" s="62"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="63"/>
-      <c r="K56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="K56" s="61"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="63"/>
-      <c r="O56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="O56" s="61"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="63"/>
-      <c r="S56" s="76"/>
+      <c r="Q56" s="62"/>
+      <c r="S56" s="75"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="75"/>
-      <c r="V56" s="120"/>
-      <c r="W56" s="76"/>
+      <c r="U56" s="74"/>
+      <c r="V56" s="119"/>
+      <c r="W56" s="75"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="75"/>
+      <c r="Y56" s="74"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
+        <v>68</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="90"/>
+      <c r="D57" s="91"/>
       <c r="E57" s="34"/>
-      <c r="G57" s="62"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="63"/>
-      <c r="K57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="K57" s="61"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="63"/>
-      <c r="O57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="O57" s="61"/>
       <c r="P57" s="5"/>
-      <c r="Q57" s="63"/>
-      <c r="S57" s="76"/>
+      <c r="Q57" s="62"/>
+      <c r="S57" s="75"/>
       <c r="T57" s="5"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="76"/>
+      <c r="U57" s="74"/>
+      <c r="V57" s="119"/>
+      <c r="W57" s="75"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="75"/>
+      <c r="Y57" s="74"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="92"/>
+        <v>70</v>
+      </c>
+      <c r="B58" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="90"/>
+      <c r="D58" s="91"/>
       <c r="E58" s="34"/>
-      <c r="G58" s="62"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="5"/>
-      <c r="I58" s="63"/>
-      <c r="K58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="K58" s="61"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="63"/>
-      <c r="O58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="O58" s="61"/>
       <c r="P58" s="5"/>
-      <c r="Q58" s="63"/>
-      <c r="S58" s="76"/>
+      <c r="Q58" s="62"/>
+      <c r="S58" s="75"/>
       <c r="T58" s="5"/>
-      <c r="U58" s="75"/>
-      <c r="V58" s="120"/>
-      <c r="W58" s="76"/>
+      <c r="U58" s="74"/>
+      <c r="V58" s="119"/>
+      <c r="W58" s="75"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="75"/>
+      <c r="Y58" s="74"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="92"/>
+        <v>72</v>
+      </c>
+      <c r="B59" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="90"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="34"/>
-      <c r="G59" s="62"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="63"/>
-      <c r="K59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="K59" s="61"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="63"/>
-      <c r="O59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="O59" s="61"/>
       <c r="P59" s="5"/>
-      <c r="Q59" s="63"/>
-      <c r="S59" s="76"/>
+      <c r="Q59" s="62"/>
+      <c r="S59" s="75"/>
       <c r="T59" s="5"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="120"/>
-      <c r="W59" s="76"/>
+      <c r="U59" s="74"/>
+      <c r="V59" s="119"/>
+      <c r="W59" s="75"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="75"/>
+      <c r="Y59" s="74"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="92"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="91"/>
       <c r="E60" s="34"/>
-      <c r="G60" s="62"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="63"/>
-      <c r="K60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="K60" s="61"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="63"/>
-      <c r="O60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="O60" s="61"/>
       <c r="P60" s="5"/>
-      <c r="Q60" s="63"/>
-      <c r="S60" s="76"/>
+      <c r="Q60" s="62"/>
+      <c r="S60" s="75"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="75"/>
-      <c r="V60" s="120"/>
-      <c r="W60" s="76"/>
+      <c r="U60" s="74"/>
+      <c r="V60" s="119"/>
+      <c r="W60" s="75"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="75"/>
+      <c r="Y60" s="74"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
       <c r="E61" s="34"/>
-      <c r="G61" s="62"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="63"/>
-      <c r="K61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="K61" s="61"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="63"/>
-      <c r="O61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="O61" s="61"/>
       <c r="P61" s="5"/>
-      <c r="Q61" s="63"/>
-      <c r="S61" s="76"/>
+      <c r="Q61" s="62"/>
+      <c r="S61" s="75"/>
       <c r="T61" s="5"/>
-      <c r="U61" s="75"/>
-      <c r="V61" s="120"/>
-      <c r="W61" s="76"/>
+      <c r="U61" s="74"/>
+      <c r="V61" s="119"/>
+      <c r="W61" s="75"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="75"/>
+      <c r="Y61" s="74"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="152"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="34"/>
-      <c r="G62" s="62"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="63"/>
-      <c r="K62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="K62" s="61"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="63"/>
-      <c r="O62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="O62" s="61"/>
       <c r="P62" s="5"/>
-      <c r="Q62" s="63"/>
-      <c r="S62" s="76"/>
+      <c r="Q62" s="62"/>
+      <c r="S62" s="75"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="75"/>
-      <c r="V62" s="120"/>
-      <c r="W62" s="76"/>
+      <c r="U62" s="74"/>
+      <c r="V62" s="119"/>
+      <c r="W62" s="75"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="75"/>
+      <c r="Y62" s="74"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="152"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="139"/>
       <c r="E63" s="34"/>
-      <c r="G63" s="62"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="63"/>
-      <c r="K63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="K63" s="61"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="63"/>
-      <c r="O63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="O63" s="61"/>
       <c r="P63" s="5"/>
-      <c r="Q63" s="63"/>
-      <c r="S63" s="76"/>
+      <c r="Q63" s="62"/>
+      <c r="S63" s="75"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="75"/>
-      <c r="V63" s="120"/>
-      <c r="W63" s="76"/>
+      <c r="U63" s="74"/>
+      <c r="V63" s="119"/>
+      <c r="W63" s="75"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="75"/>
+      <c r="Y63" s="74"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="152"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="139"/>
       <c r="E64" s="34"/>
-      <c r="G64" s="62"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="63"/>
-      <c r="K64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="K64" s="61"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="63"/>
-      <c r="O64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="O64" s="61"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="63"/>
-      <c r="S64" s="76"/>
+      <c r="Q64" s="62"/>
+      <c r="S64" s="75"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="75"/>
-      <c r="V64" s="120"/>
-      <c r="W64" s="76"/>
+      <c r="U64" s="74"/>
+      <c r="V64" s="119"/>
+      <c r="W64" s="75"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="75"/>
+      <c r="Y64" s="74"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="150"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="152"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="139"/>
       <c r="E65" s="34"/>
-      <c r="G65" s="62"/>
+      <c r="G65" s="61"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="63"/>
-      <c r="K65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="K65" s="61"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="63"/>
-      <c r="O65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="O65" s="61"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="63"/>
-      <c r="S65" s="76"/>
+      <c r="Q65" s="62"/>
+      <c r="S65" s="75"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="75"/>
-      <c r="W65" s="76"/>
+      <c r="U65" s="74"/>
+      <c r="W65" s="75"/>
       <c r="X65" s="5"/>
-      <c r="Y65" s="75"/>
+      <c r="Y65" s="74"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="155"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
       <c r="E66" s="35"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="69"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="69"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="69"/>
-      <c r="S66" s="79"/>
-      <c r="T66" s="80"/>
-      <c r="U66" s="81"/>
-      <c r="W66" s="79"/>
-      <c r="X66" s="80"/>
-      <c r="Y66" s="81"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="68"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="68"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="68"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="79"/>
+      <c r="U66" s="80"/>
+      <c r="W66" s="78"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="80"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5587,21 +5647,21 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A30:F41 A43:R53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H11:AG11 H9:O9 R9 J8:K8 N8:R8 H10:R10 S8:AG10 H24:J24 N24 A26:AG27 H12:O23 R12:AG25 H25:Q25 A8:G25">
@@ -5900,20 +5960,18 @@
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56:Y66 I56:I66 M56:M66 Q56:Q66 U56:U66 M43:M53 I43:I53 Q43:Q53 I7:I26 M7:M26 Y7:Y26 U7:U26 Q7:Q26" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:D41 C43:D53 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{D68488AA-4E20-466D-8A6F-C3AF61C4A76C}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q44:Q53 Q43 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{2326153B-86F0-4B78-8625-D26FD856ACC1}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5924,6 +5982,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6132,15 +6199,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
@@ -6159,6 +6217,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6175,12 +6241,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C555FE-5B9D-46FF-A1E6-0FA9D0BEB5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70743300-6E6C-4C87-A18B-DB7D37C4DA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2073,36 +2073,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2130,11 +2100,85 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3023,11 +3067,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="78"/>
-      <tableStyleElement type="headerRow" dxfId="77"/>
-      <tableStyleElement type="firstColumn" dxfId="76"/>
-      <tableStyleElement type="firstRowStripe" dxfId="75"/>
-      <tableStyleElement type="secondRowStripe" dxfId="74"/>
+      <tableStyleElement type="wholeTable" dxfId="82"/>
+      <tableStyleElement type="headerRow" dxfId="81"/>
+      <tableStyleElement type="firstColumn" dxfId="80"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3650,8 +3694,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3713,32 +3757,32 @@
         <v>51</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="O4" s="146" t="s">
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="O4" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="S4" s="143" t="s">
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="S4" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="145"/>
-      <c r="W4" s="143" t="s">
+      <c r="T4" s="147"/>
+      <c r="U4" s="148"/>
+      <c r="W4" s="146" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="148"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4572,35 +4616,35 @@
       <c r="C28" s="130"/>
       <c r="D28" s="130"/>
       <c r="E28" s="131"/>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139"/>
       <c r="J28" s="92"/>
-      <c r="K28" s="147" t="s">
+      <c r="K28" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
       <c r="N28" s="92"/>
-      <c r="O28" s="150" t="s">
+      <c r="O28" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="152"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="142"/>
       <c r="R28" s="93"/>
-      <c r="S28" s="153" t="s">
+      <c r="S28" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="T28" s="154"/>
-      <c r="U28" s="155"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="145"/>
       <c r="V28" s="118"/>
-      <c r="W28" s="153" t="s">
+      <c r="W28" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="155"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="145"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="132" t="s">
@@ -4719,7 +4763,7 @@
       <c r="A32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="100"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="101"/>
       <c r="D32" s="100"/>
       <c r="E32" s="102"/>
@@ -4744,7 +4788,7 @@
       <c r="A33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="100"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="101"/>
       <c r="D33" s="100"/>
       <c r="E33" s="102"/>
@@ -4769,7 +4813,7 @@
       <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="100"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="101"/>
       <c r="D34" s="100"/>
       <c r="E34" s="102"/>
@@ -4794,7 +4838,7 @@
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="100"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="101"/>
       <c r="D35" s="100"/>
       <c r="E35" s="102"/>
@@ -4819,7 +4863,7 @@
       <c r="A36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="100"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="101"/>
       <c r="D36" s="100"/>
       <c r="E36" s="102"/>
@@ -4844,7 +4888,7 @@
       <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="100"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="101"/>
       <c r="D37" s="100"/>
       <c r="E37" s="102"/>
@@ -4869,7 +4913,7 @@
       <c r="A38" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="100"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="101"/>
       <c r="D38" s="100"/>
       <c r="E38" s="102"/>
@@ -4894,7 +4938,7 @@
       <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="100"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="101"/>
       <c r="D39" s="100"/>
       <c r="E39" s="102"/>
@@ -4919,7 +4963,7 @@
       <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="103"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="104"/>
       <c r="D40" s="103"/>
       <c r="E40" s="105"/>
@@ -5523,9 +5567,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="34"/>
       <c r="G62" s="61"/>
       <c r="H62" s="5"/>
@@ -5546,9 +5590,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="152"/>
       <c r="E63" s="34"/>
       <c r="G63" s="61"/>
       <c r="H63" s="5"/>
@@ -5569,9 +5613,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="34"/>
       <c r="G64" s="61"/>
       <c r="H64" s="5"/>
@@ -5592,9 +5636,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="34"/>
       <c r="G65" s="61"/>
       <c r="H65" s="5"/>
@@ -5614,9 +5658,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="142"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="35"/>
       <c r="G66" s="66"/>
       <c r="H66" s="67"/>
@@ -5641,38 +5685,54 @@
     <protectedRange sqref="A1" name="title"/>
     <protectedRange sqref="A56:Y66" name="Questionnaire"/>
     <protectedRange sqref="A7:Q11 A26:Q26 A12:O25" name="Contact Fields"/>
-    <protectedRange sqref="S26:Y27 S55:Y66 S4:Y25" name="customEntity"/>
+    <protectedRange sqref="S55:Y66 S4:Y27" name="customEntity"/>
     <protectedRange sqref="P12:Q25" name="Contact Fields_7"/>
     <protectedRange sqref="S28:Y29 S42:Y42" name="customEntities_2"/>
-    <protectedRange sqref="N30:N41 J30:J41 R30:R41 A30:F41 A43:R53" name="Questionnaire_3"/>
+    <protectedRange sqref="N30:N41 J30:J41 R30:R41 A43:R53 A30:F41" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H11:AG11 H9:O9 R9 J8:K8 N8:R8 H10:R10 S8:AG10 H24:J24 N24 A26:AG27 H12:O23 R12:AG25 H25:Q25 A8:G25">
-    <cfRule type="expression" dxfId="73" priority="89">
+    <cfRule type="expression" dxfId="77" priority="93">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="90">
+    <cfRule type="expression" dxfId="76" priority="94">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56:Y66">
+    <cfRule type="expression" dxfId="75" priority="91">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="92">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S56:U66">
+    <cfRule type="expression" dxfId="73" priority="89">
+      <formula>$C56="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="90">
+      <formula>$D56="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O56:Q66">
     <cfRule type="expression" dxfId="71" priority="87">
       <formula>$C56="x"</formula>
     </cfRule>
@@ -5680,7 +5740,7 @@
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S56:U66">
+  <conditionalFormatting sqref="K56:M66">
     <cfRule type="expression" dxfId="69" priority="85">
       <formula>$C56="x"</formula>
     </cfRule>
@@ -5688,7 +5748,7 @@
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O56:Q66">
+  <conditionalFormatting sqref="G56:I66">
     <cfRule type="expression" dxfId="67" priority="83">
       <formula>$C56="x"</formula>
     </cfRule>
@@ -5696,275 +5756,267 @@
       <formula>$D56="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56:M66">
-    <cfRule type="expression" dxfId="65" priority="81">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="82">
-      <formula>$D56="x"</formula>
+  <conditionalFormatting sqref="P9:Q9">
+    <cfRule type="expression" dxfId="65" priority="65">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="66">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:I66">
-    <cfRule type="expression" dxfId="63" priority="79">
-      <formula>$C56="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="80">
-      <formula>$D56="x"</formula>
+  <conditionalFormatting sqref="H8:I8">
+    <cfRule type="expression" dxfId="63" priority="67">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="68">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="61" priority="61">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="62">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:I8">
-    <cfRule type="expression" dxfId="59" priority="63">
+    <cfRule type="expression" dxfId="61" priority="97">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="64">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="57" priority="93">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="94">
+    <cfRule type="expression" dxfId="60" priority="98">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8:M8">
-    <cfRule type="expression" dxfId="55" priority="57">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="expression" dxfId="53" priority="49">
+    <cfRule type="expression" dxfId="57" priority="53">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="50">
+    <cfRule type="expression" dxfId="56" priority="54">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:M24">
-    <cfRule type="expression" dxfId="51" priority="55">
+    <cfRule type="expression" dxfId="55" priority="59">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="56">
+    <cfRule type="expression" dxfId="54" priority="60">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24">
-    <cfRule type="expression" dxfId="49" priority="53">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="52" priority="58">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:Q23">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q24">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="49" priority="49">
       <formula>$C24="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="48" priority="50">
       <formula>$D24="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:AE54">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 B35 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 A30:F34 A38:F41 N30:N41 J30:J41 R30:R41 A43:R53">
-    <cfRule type="expression" dxfId="41" priority="35">
+  <conditionalFormatting sqref="Z30:AG35 A42:Y42 AA36:AG53 A35:A37 C35:F37 A29:AG29 A28:F28 J28 N28 R28:AG28 N30:N41 J30:J41 R30:R41 A43:R53 A30:F34 B35 A38:F41">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C28="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D28="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37">
-    <cfRule type="expression" dxfId="39" priority="33">
-      <formula>$C35="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
-      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O31">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="40" priority="36">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q31">
-    <cfRule type="expression" dxfId="35" priority="29">
+    <cfRule type="expression" dxfId="39" priority="33">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30">
+    <cfRule type="expression" dxfId="38" priority="34">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32:O41">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q41">
-    <cfRule type="expression" dxfId="31" priority="25">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K31">
-    <cfRule type="expression" dxfId="29" priority="23">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="24">
+    <cfRule type="expression" dxfId="32" priority="28">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:M31">
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="30" priority="26">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K41">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:M41">
-    <cfRule type="expression" dxfId="23" priority="17">
+    <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:I31">
-    <cfRule type="expression" dxfId="19" priority="13">
+    <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="14">
+    <cfRule type="expression" dxfId="22" priority="18">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:I41">
-    <cfRule type="expression" dxfId="15" priority="9">
+    <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:Y40">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>$C30="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>$D30="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S43:Y52">
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C43="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D43="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53:Y53">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C53="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D53="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41:Y41">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="11" priority="5">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z50">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="9" priority="43">
       <formula>$C54="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="8" priority="44">
       <formula>$D54="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36 Z41:Z48">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="7" priority="45">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="6" priority="46">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z49 Z37:Z40">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="5" priority="47">
       <formula>$C41="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="4" priority="48">
       <formula>$D41="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C36="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D36="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:D41 C43:D53 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q44:Q53 Q43 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{2326153B-86F0-4B78-8625-D26FD856ACC1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{2326153B-86F0-4B78-8625-D26FD856ACC1}">
       <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5976,21 +6028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6199,32 +6236,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6241,4 +6268,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D7BA4-2D6D-4F62-B37A-FDFE804D6964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D328E9AD-F638-4F1F-95E6-D7E858BB185F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2013,6 +2013,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2039,36 +2069,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3590,8 +3590,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,32 +3653,32 @@
         <v>54</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="O4" s="149" t="s">
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="O4" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="S4" s="146" t="s">
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="S4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="147"/>
-      <c r="U4" s="148"/>
-      <c r="W4" s="146" t="s">
+      <c r="T4" s="144"/>
+      <c r="U4" s="145"/>
+      <c r="W4" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="148"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4512,35 +4512,35 @@
       <c r="C28" s="131"/>
       <c r="D28" s="131"/>
       <c r="E28" s="132"/>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="93"/>
-      <c r="K28" s="137" t="s">
+      <c r="K28" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="149"/>
       <c r="N28" s="93"/>
-      <c r="O28" s="140" t="s">
+      <c r="O28" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="142"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="152"/>
       <c r="R28" s="94"/>
-      <c r="S28" s="143" t="s">
+      <c r="S28" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="144"/>
-      <c r="U28" s="145"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="155"/>
       <c r="V28" s="119"/>
-      <c r="W28" s="143" t="s">
+      <c r="W28" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="145"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="155"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="133" t="s">
@@ -5463,9 +5463,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="152"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="34"/>
       <c r="G62" s="62"/>
       <c r="H62" s="5"/>
@@ -5486,9 +5486,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="152"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="139"/>
       <c r="E63" s="34"/>
       <c r="G63" s="62"/>
       <c r="H63" s="5"/>
@@ -5509,9 +5509,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="152"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="139"/>
       <c r="E64" s="34"/>
       <c r="G64" s="62"/>
       <c r="H64" s="5"/>
@@ -5532,9 +5532,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="150"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="152"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="139"/>
       <c r="E65" s="34"/>
       <c r="G65" s="62"/>
       <c r="H65" s="5"/>
@@ -5554,9 +5554,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="155"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
       <c r="E66" s="35"/>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
@@ -5587,21 +5587,21 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A30:F41 A43:R53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H11:AG11 H9:O9 R9 J8:K8 N8:R8 H10:R10 S8:AG10 H24:J24 N24 A26:AG27 H12:O23 R12:AG25 H25:Q25 A8:G25">
@@ -5900,15 +5900,12 @@
       <formula>$D41="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y56:Y66 I56:I66 M56:M66 Q56:Q66 U56:U66 M43:M53 I43:I53 Q43:Q53 I7:I26 M7:M26 Y7:Y26 U7:U26 Q7:Q26" xr:uid="{05EE5722-A5ED-40F3-8F25-E2D71E29DB43}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:D41 C43:D53 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y30:Y41 Q30:Q41 M30:M41 I30:I41 U30:U41 U43:U53 Y43:Y53" xr:uid="{D68488AA-4E20-466D-8A6F-C3AF61C4A76C}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 Y31:Y41 Y30 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U65 U66 Q56:Q66 M56:M66 I57:I65 I66 I56" xr:uid="{22AEEAC8-E902-4DD1-B993-7F6F7E509944}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5918,12 +5915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6132,6 +6123,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6142,23 +6139,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6177,6 +6157,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D328E9AD-F638-4F1F-95E6-D7E858BB185F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD750E-862A-40EA-8B1E-E45DC61FBC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>das ist eine Notiz</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">Group 2 </t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -2013,36 +2013,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2069,6 +2039,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3591,7 +3591,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3619,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3653,39 +3653,41 @@
         <v>54</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="O4" s="146" t="s">
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="O4" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="S4" s="143" t="s">
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="S4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="145"/>
-      <c r="W4" s="143" t="s">
+      <c r="T4" s="147"/>
+      <c r="U4" s="148"/>
+      <c r="W4" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="148"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="52"/>
+      <c r="B6" s="52" t="s">
+        <v>98</v>
+      </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
       <c r="E6" s="39" t="s">
@@ -3765,9 +3767,7 @@
       <c r="A8" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
@@ -3986,7 +3986,7 @@
         <v>60</v>
       </c>
       <c r="L13" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M13" s="60" t="s">
         <v>9</v>
@@ -3995,7 +3995,7 @@
         <v>60</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="60" t="s">
         <v>9</v>
@@ -4204,7 +4204,7 @@
         <v>65</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="63" t="s">
         <v>9</v>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>44</v>
@@ -4506,48 +4506,48 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="131"/>
       <c r="E28" s="132"/>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139"/>
       <c r="J28" s="93"/>
-      <c r="K28" s="147" t="s">
+      <c r="K28" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
       <c r="N28" s="93"/>
-      <c r="O28" s="150" t="s">
+      <c r="O28" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="152"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="142"/>
       <c r="R28" s="94"/>
-      <c r="S28" s="153" t="s">
+      <c r="S28" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="154"/>
-      <c r="U28" s="155"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="145"/>
       <c r="V28" s="119"/>
-      <c r="W28" s="153" t="s">
+      <c r="W28" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="155"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="145"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="134" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>84</v>
       </c>
       <c r="C29" s="135"/>
       <c r="D29" s="135"/>
@@ -4603,15 +4603,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="99" t="s">
         <v>85</v>
-      </c>
-      <c r="B30" s="99" t="s">
-        <v>86</v>
       </c>
       <c r="C30" s="100"/>
       <c r="D30" s="99"/>
       <c r="E30" s="98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="6"/>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="101"/>
       <c r="C32" s="102"/>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="101"/>
       <c r="C33" s="102"/>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="101"/>
       <c r="C35" s="102"/>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="101"/>
       <c r="C36" s="102"/>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="102"/>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="102"/>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" s="101"/>
       <c r="C39" s="102"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="127" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="128"/>
       <c r="D42" s="128"/>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="96"/>
       <c r="C43" s="97"/>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="102"/>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="101"/>
       <c r="C45" s="102"/>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="101"/>
       <c r="C46" s="102"/>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="101"/>
       <c r="C47" s="102"/>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="101"/>
       <c r="C48" s="102"/>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" s="101"/>
       <c r="C49" s="102"/>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="101"/>
       <c r="C50" s="102"/>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="101"/>
       <c r="C51" s="102"/>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="104"/>
       <c r="C52" s="105"/>
@@ -5463,9 +5463,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="34"/>
       <c r="G62" s="62"/>
       <c r="H62" s="5"/>
@@ -5486,9 +5486,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="152"/>
       <c r="E63" s="34"/>
       <c r="G63" s="62"/>
       <c r="H63" s="5"/>
@@ -5509,9 +5509,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="34"/>
       <c r="G64" s="62"/>
       <c r="H64" s="5"/>
@@ -5532,9 +5532,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="34"/>
       <c r="G65" s="62"/>
       <c r="H65" s="5"/>
@@ -5554,9 +5554,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="142"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="35"/>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
@@ -5587,21 +5587,21 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A30:F41 A43:R53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H11:AG11 H9:O9 R9 J8:K8 N8:R8 H10:R10 S8:AG10 H24:J24 N24 A26:AG27 H12:O23 R12:AG25 H25:Q25 A8:G25">
@@ -5915,6 +5915,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6123,12 +6129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6139,6 +6139,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6157,23 +6174,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD750E-862A-40EA-8B1E-E45DC61FBC96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522936A5-4AA8-4550-A93D-F4A12A36AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>SAGE: Interessent</t>
   </si>
   <si>
-    <t>Pflichtfel</t>
-  </si>
-  <si>
     <t>nicht benötigt</t>
   </si>
   <si>
@@ -362,6 +359,9 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
   </si>
 </sst>
 </file>
@@ -2013,6 +2013,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2039,36 +2069,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3590,8 +3590,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3619,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3641,44 +3641,44 @@
       <c r="G3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="O4" s="149" t="s">
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="O4" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="S4" s="146" t="s">
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="S4" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="147"/>
-      <c r="U4" s="148"/>
-      <c r="W4" s="146" t="s">
+      <c r="T4" s="144"/>
+      <c r="U4" s="145"/>
+      <c r="W4" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="147"/>
-      <c r="Y4" s="148"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="145"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3686,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -3765,14 +3765,14 @@
     </row>
     <row r="8" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="48"/>
       <c r="E8" s="49"/>
       <c r="G8" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>22</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L8" s="83" t="s">
         <v>36</v>
@@ -3810,14 +3810,14 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="37"/>
       <c r="G9" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>23</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="83" t="s">
         <v>37</v>
@@ -3855,14 +3855,14 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="37"/>
       <c r="G10" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>24</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="83" t="s">
         <v>38</v>
@@ -3892,14 +3892,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="37"/>
       <c r="G11" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>25</v>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="83" t="s">
         <v>39</v>
@@ -3929,14 +3929,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="37"/>
       <c r="G12" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>27</v>
@@ -3949,7 +3949,7 @@
       <c r="L12" s="83"/>
       <c r="M12" s="63"/>
       <c r="O12" s="62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>46</v>
@@ -3966,14 +3966,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="37"/>
       <c r="G13" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>28</v>
@@ -3983,19 +3983,19 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="60" t="s">
         <v>9</v>
       </c>
       <c r="O13" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="60" t="s">
         <v>9</v>
@@ -4009,14 +4009,14 @@
     </row>
     <row r="14" spans="1:25" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
       <c r="G14" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>29</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="J14" s="50"/>
       <c r="K14" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="85" t="s">
         <v>40</v>
@@ -4035,7 +4035,7 @@
         <v>9</v>
       </c>
       <c r="O14" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P14" s="51" t="s">
         <v>40</v>
@@ -4052,14 +4052,14 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="37"/>
       <c r="G15" s="59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>35</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="86" t="s">
         <v>41</v>
@@ -4078,7 +4078,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" s="10" t="s">
         <v>41</v>
@@ -4095,14 +4095,14 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="37"/>
       <c r="G16" s="59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>30</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="83" t="s">
         <v>42</v>
@@ -4121,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="O16" s="62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>42</v>
@@ -4138,14 +4138,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="37"/>
       <c r="G17" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>31</v>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L17" s="83" t="s">
         <v>43</v>
@@ -4164,7 +4164,7 @@
         <v>9</v>
       </c>
       <c r="O17" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>43</v>
@@ -4181,14 +4181,14 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="37"/>
       <c r="G18" s="59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>32</v>
@@ -4201,10 +4201,10 @@
       <c r="L18" s="83"/>
       <c r="M18" s="63"/>
       <c r="O18" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="63" t="s">
         <v>9</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="24"/>
@@ -4300,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P21" s="5" t="s">
         <v>44</v>
@@ -4360,14 +4360,14 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
       <c r="G23" s="59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>47</v>
@@ -4506,48 +4506,48 @@
     </row>
     <row r="28" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="130" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="131"/>
       <c r="C28" s="131"/>
       <c r="D28" s="131"/>
       <c r="E28" s="132"/>
-      <c r="G28" s="137" t="s">
+      <c r="G28" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="138"/>
-      <c r="I28" s="139"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="149"/>
       <c r="J28" s="93"/>
-      <c r="K28" s="137" t="s">
+      <c r="K28" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="149"/>
       <c r="N28" s="93"/>
-      <c r="O28" s="140" t="s">
+      <c r="O28" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="142"/>
+      <c r="P28" s="151"/>
+      <c r="Q28" s="152"/>
       <c r="R28" s="94"/>
-      <c r="S28" s="143" t="s">
+      <c r="S28" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="144"/>
-      <c r="U28" s="145"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="155"/>
       <c r="V28" s="119"/>
-      <c r="W28" s="143" t="s">
+      <c r="W28" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="145"/>
+      <c r="X28" s="154"/>
+      <c r="Y28" s="155"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="134" t="s">
         <v>82</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>83</v>
       </c>
       <c r="C29" s="135"/>
       <c r="D29" s="135"/>
@@ -4603,15 +4603,15 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="99" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" s="99" t="s">
-        <v>85</v>
       </c>
       <c r="C30" s="100"/>
       <c r="D30" s="99"/>
       <c r="E30" s="98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="59"/>
       <c r="H30" s="6"/>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="101"/>
       <c r="C32" s="102"/>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="101"/>
       <c r="C33" s="102"/>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B34" s="101"/>
       <c r="C34" s="102"/>
@@ -4732,7 +4732,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B35" s="101"/>
       <c r="C35" s="102"/>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="101"/>
       <c r="C36" s="102"/>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="101"/>
       <c r="C37" s="102"/>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" s="101"/>
       <c r="C38" s="102"/>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="101"/>
       <c r="C39" s="102"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" s="127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="128"/>
       <c r="D42" s="128"/>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="43" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="96"/>
       <c r="C43" s="97"/>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="101"/>
       <c r="C44" s="102"/>
@@ -5014,7 +5014,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="101"/>
       <c r="C45" s="102"/>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="101"/>
       <c r="C46" s="102"/>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="101"/>
       <c r="C47" s="102"/>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="101"/>
       <c r="C48" s="102"/>
@@ -5114,7 +5114,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="101"/>
       <c r="C49" s="102"/>
@@ -5139,7 +5139,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="101"/>
       <c r="C50" s="102"/>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="101"/>
       <c r="C51" s="102"/>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="104"/>
       <c r="C52" s="105"/>
@@ -5309,10 +5309,10 @@
     </row>
     <row r="56" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="87" t="s">
         <v>69</v>
-      </c>
-      <c r="B56" s="87" t="s">
-        <v>70</v>
       </c>
       <c r="C56" s="88"/>
       <c r="D56" s="89"/>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="90" t="s">
         <v>71</v>
-      </c>
-      <c r="B57" s="90" t="s">
-        <v>72</v>
       </c>
       <c r="C57" s="91"/>
       <c r="D57" s="92"/>
@@ -5363,10 +5363,10 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="B58" s="90" t="s">
-        <v>74</v>
       </c>
       <c r="C58" s="91"/>
       <c r="D58" s="92"/>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="90" t="s">
         <v>75</v>
-      </c>
-      <c r="B59" s="90" t="s">
-        <v>76</v>
       </c>
       <c r="C59" s="91"/>
       <c r="D59" s="92"/>
@@ -5463,9 +5463,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="151"/>
-      <c r="D62" s="152"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
       <c r="E62" s="34"/>
       <c r="G62" s="62"/>
       <c r="H62" s="5"/>
@@ -5486,9 +5486,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="151"/>
-      <c r="D63" s="152"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="139"/>
       <c r="E63" s="34"/>
       <c r="G63" s="62"/>
       <c r="H63" s="5"/>
@@ -5509,9 +5509,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="152"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="139"/>
       <c r="E64" s="34"/>
       <c r="G64" s="62"/>
       <c r="H64" s="5"/>
@@ -5532,9 +5532,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="150"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="152"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="139"/>
       <c r="E65" s="34"/>
       <c r="G65" s="62"/>
       <c r="H65" s="5"/>
@@ -5554,9 +5554,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="153"/>
-      <c r="C66" s="154"/>
-      <c r="D66" s="155"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="142"/>
       <c r="E66" s="35"/>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
@@ -5587,21 +5587,21 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A30:F41 A43:R53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="B63:D63"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="B65:D65"/>
     <mergeCell ref="B66:D66"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="W28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H11:AG11 H9:O9 R9 J8:K8 N8:R8 H10:R10 S8:AG10 H24:J24 N24 A26:AG27 H12:O23 R12:AG25 H25:Q25 A8:G25">
@@ -5915,12 +5915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6129,6 +6123,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6139,23 +6139,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6174,6 +6157,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAGE_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522936A5-4AA8-4550-A93D-F4A12A36AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7DBCCA-A187-4D13-A963-366E8FFD9DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2013,36 +2013,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2069,6 +2039,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3590,8 +3590,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,7 +3641,7 @@
       <c r="G3" s="44"/>
       <c r="K3" s="44"/>
     </row>
-    <row r="4" spans="1:25" ht="81" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -3653,32 +3653,32 @@
         <v>53</v>
       </c>
       <c r="E4" s="32"/>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="O4" s="146" t="s">
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="O4" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="S4" s="143" t="s">
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="S4" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="145"/>
-      <c r="W4" s="143" t="s">
+      <c r="T4" s="147"/>
+      <c r="U4" s="148"/>
+      <c r="W4" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="145"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="148"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4512,35 +4512,35 @@
       <c r="C28" s="131"/>
       <c r="D28" s="131"/>
       <c r="E28" s="132"/>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="149"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="139"/>
       <c r="J28" s="93"/>
-      <c r="K28" s="147" t="s">
+      <c r="K28" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="148"/>
-      <c r="M28" s="149"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
       <c r="N28" s="93"/>
-      <c r="O28" s="150" t="s">
+      <c r="O28" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="152"/>
+      <c r="P28" s="141"/>
+      <c r="Q28" s="142"/>
       <c r="R28" s="94"/>
-      <c r="S28" s="153" t="s">
+      <c r="S28" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="154"/>
-      <c r="U28" s="155"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="145"/>
       <c r="V28" s="119"/>
-      <c r="W28" s="153" t="s">
+      <c r="W28" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="154"/>
-      <c r="Y28" s="155"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="145"/>
     </row>
     <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="133" t="s">
@@ -5463,9 +5463,9 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="151"/>
+      <c r="D62" s="152"/>
       <c r="E62" s="34"/>
       <c r="G62" s="62"/>
       <c r="H62" s="5"/>
@@ -5486,9 +5486,9 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="151"/>
+      <c r="D63" s="152"/>
       <c r="E63" s="34"/>
       <c r="G63" s="62"/>
       <c r="H63" s="5"/>
@@ -5509,9 +5509,9 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="151"/>
+      <c r="D64" s="152"/>
       <c r="E64" s="34"/>
       <c r="G64" s="62"/>
       <c r="H64" s="5"/>
@@ -5532,9 +5532,9 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="151"/>
+      <c r="D65" s="152"/>
       <c r="E65" s="34"/>
       <c r="G65" s="62"/>
       <c r="H65" s="5"/>
@@ -5554,9 +5554,9 @@
     </row>
     <row r="66" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="142"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="155"/>
       <c r="E66" s="35"/>
       <c r="G66" s="67"/>
       <c r="H66" s="68"/>
@@ -5587,21 +5587,21 @@
     <protectedRange sqref="N30:N41 J30:J41 R30:R41 A30:F41 A43:R53" name="Questionnaire_3"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="S28:U28"/>
     <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H11:AG11 H9:O9 R9 J8:K8 N8:R8 H10:R10 S8:AG10 H24:J24 N24 A26:AG27 H12:O23 R12:AG25 H25:Q25 A8:G25">
@@ -5904,8 +5904,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30:D41 C43:D53 C7:D26" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 Y31:Y41 Y30 U30:U41 Q30:Q41 M30:M41 I30:I41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 Y56:Y66 U56:U65 U66 Q56:Q66 M56:M66 I57:I65 I66 I56" xr:uid="{22AEEAC8-E902-4DD1-B993-7F6F7E509944}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I26 M7:M26 Q7:Q26 U7:U26 Y7:Y26 I30:I41 M30:M41 Q30:Q41 U30:U41 Y30:Y41 I43:I53 M43:M53 Q43:Q53 U43:U53 Y43:Y53 I56:I66 M56:M66 Q56:Q66 U56:U66 Y56:Y66" xr:uid="{DB7D9581-9721-4144-BC06-EF966236050C}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5915,6 +5915,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6123,12 +6129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6139,6 +6139,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6157,23 +6174,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
